--- a/biology/Zoologie/Cercopithèque_de_Preuss/Cercopithèque_de_Preuss.xlsx
+++ b/biology/Zoologie/Cercopithèque_de_Preuss/Cercopithèque_de_Preuss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_Preuss</t>
+          <t>Cercopithèque_de_Preuss</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allochrocebus preussi
 Le Cercopithèque de Preuss (Allochrocebus preussi) est une espèce rare de primates de la famille des cercopithécidés qui vit en Afrique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_Preuss</t>
+          <t>Cercopithèque_de_Preuss</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au sud-est du Nigeria, à l'ouest du Cameroun et sur l'île Bioko appartenant à la Guinée équatoriale. La sous-espèce A. preussi preussi est sur le continent et la sous-espèce A. p. insularis occupe l'île[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au sud-est du Nigeria, à l'ouest du Cameroun et sur l'île Bioko appartenant à la Guinée équatoriale. La sous-espèce A. preussi preussi est sur le continent et la sous-espèce A. p. insularis occupe l'île.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cercopith%C3%A8que_de_Preuss</t>
+          <t>Cercopithèque_de_Preuss</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce primate a parfois été considéré par le passé comme une sous-espèce du cercopithèque de l'Hœst (Cercopithecus lhoesti preussi). Certains auteurs préconisent de le placer dans le genre Allochrocebus.
-Liste des sous-espèces
-Selon Catalogue of Life                                   (1 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce primate a parfois été considéré par le passé comme une sous-espèce du cercopithèque de l'Hœst (Cercopithecus lhoesti preussi). Certains auteurs préconisent de le placer dans le genre Allochrocebus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cercopithèque_de_Preuss</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopith%C3%A8que_de_Preuss</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 avril 2019) :
 sous-espèce Allochrocebus preussi insularis (Thomas, 1910)
 sous-espèce Allochrocebus preussi preussi (Matschie, 1898)</t>
         </is>
